--- a/src/main/resources/excel/lead.xlsx
+++ b/src/main/resources/excel/lead.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\AutoDesk_Job1\CRMFrameWork\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4686C4B0-E019-479C-9AEB-FA7D7E46CCAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995C36F-3317-4DCE-98D5-D6F9B7EE005D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Export" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>First Name</t>
   </si>
@@ -230,19 +230,12 @@
   </si>
   <si>
     <t>Yantra20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Yantra1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,7 +556,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -657,10 +652,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -930,16 +925,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58256162-2AC4-4702-9292-7D342C379C15}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f>TRANSPOSE(Create!#REF!)</f>
-        <v>#REF!</v>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
